--- a/DataSet/IncineratorsOld.xlsx
+++ b/DataSet/IncineratorsOld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE2A708-7944-424C-B816-12D5995E5ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40166EC4-49E5-4649-86D9-593B8703D493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3216" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
   <si>
     <t>Municipality</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Vindmøllevej 6, 2300 København</t>
-  </si>
-  <si>
-    <t>Amagerforbrændingen</t>
   </si>
   <si>
     <t xml:space="preserve">Copenhagen </t>
@@ -50,12 +47,6 @@
 2300 København S</t>
   </si>
   <si>
-    <t>Vestforbrænding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amagerforbrændingen </t>
-  </si>
-  <si>
     <t>Glostrup</t>
   </si>
   <si>
@@ -66,9 +57,6 @@
   </si>
   <si>
     <t>Århus</t>
-  </si>
-  <si>
-    <t>I/S Reno-Nord</t>
   </si>
   <si>
     <t>Aalborg</t>
@@ -110,30 +98,18 @@
 6100 Haderslev</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenå Kommune </t>
-  </si>
-  <si>
     <t>Kalorievej 9,
 8500 Grenå</t>
   </si>
   <si>
-    <t>Hammel Fjernvarme A.m.b.a.</t>
-  </si>
-  <si>
     <t>Irlandsvej 6,
 8450 Hammel</t>
   </si>
   <si>
-    <t>EG. Jylland</t>
-  </si>
-  <si>
     <t>Miljøvej 3,
 7400 Herning</t>
   </si>
   <si>
-    <t>AVV I/S</t>
-  </si>
-  <si>
     <t>Hjørring</t>
   </si>
   <si>
@@ -145,9 +121,6 @@
 9500 Hobro</t>
   </si>
   <si>
-    <t>I/S Fælles Forbrænding (Reno Nord later on)</t>
-  </si>
-  <si>
     <t>Holstebro</t>
   </si>
   <si>
@@ -165,9 +138,6 @@
 2970 Hørsholm</t>
   </si>
   <si>
-    <t>TAS I/S</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kolding </t>
   </si>
   <si>
@@ -175,9 +145,6 @@
 6000 Kolding</t>
   </si>
   <si>
-    <t xml:space="preserve">Source </t>
-  </si>
-  <si>
     <t>Næstved</t>
   </si>
   <si>
@@ -185,12 +152,6 @@
 4700 Næstved</t>
   </si>
   <si>
-    <t>https://slideplayer.com/slide/8168022/</t>
-  </si>
-  <si>
-    <t>I/S REFA</t>
-  </si>
-  <si>
     <t>Energivej 4,
 4800 Nykøbing F.</t>
   </si>
@@ -198,19 +159,10 @@
     <t>Odense</t>
   </si>
   <si>
-    <t>https://www.babcock.com/assets/Case-Studies/PCH201-103-REFA-CHP-Plant-Case-Study-Falster-Babcock-Wilcox.pdf</t>
-  </si>
-  <si>
-    <t>https://www.odense.dk/temp/SBSYS/Dagsordener/By-_og_Kulturudvalge(2016)/05-04-2016/Dagsorden(ID69)/Bilag/Punkt_7_Bilag_2_Projektforslag_i_hht_varmeforsyningsloven_Roeggaskondensering_FFA_06012026_1_0.pdf</t>
-  </si>
-  <si>
     <t>Almegårdsvej 8,
 3700 Rønne</t>
   </si>
   <si>
-    <t>https://bofa.dk/wp-content/uploads/2018/05/samlet-historie.pdf</t>
-  </si>
-  <si>
     <t>Roskilde</t>
   </si>
   <si>
@@ -221,9 +173,6 @@
     <t xml:space="preserve">I don't know whether the opening year was 1984; but I know that in 1984 the incinerator was there; the incinerator was renewed in 2013, with a huge project. </t>
   </si>
   <si>
-    <t>I/S RENO SYD</t>
-  </si>
-  <si>
     <t>Skanderborg</t>
   </si>
   <si>
@@ -231,46 +180,21 @@
 8660 Skanderborg</t>
   </si>
   <si>
-    <t>http://www.skanderborgleksikon.dk/index.php/Lossepladser_i_Skanderborg</t>
-  </si>
-  <si>
     <t>Slagelse</t>
-  </si>
-  <si>
-    <t>I/S KAVO</t>
   </si>
   <si>
     <t>Dalsvinget 11,
 4200 Slagelse</t>
   </si>
   <si>
-    <t>https://www.tv2east.dk/slagelse/kommuner-vil-lukke-forbraendingsanlaeg-rammer-anlaeg-i-slagelse</t>
-  </si>
-  <si>
     <t>Sønderborg</t>
-  </si>
-  <si>
-    <t>Sønderborg Kraftvarmeværk I/S</t>
   </si>
   <si>
     <t>Vestermark 16,
 6400 Sønderborg</t>
   </si>
   <si>
-    <t>https://www.sonderborg-varme.dk/om-os/om-soenderborg-varme/historie/</t>
-  </si>
-  <si>
-    <t>Svendborg kommune</t>
-  </si>
-  <si>
     <t xml:space="preserve">Svendborg </t>
-  </si>
-  <si>
-    <t>Bodøvej 1,
-5700 Svendborg</t>
-  </si>
-  <si>
-    <t>http://www.svendborgkraftvarme.dk/pdf/gr2005.pdf</t>
   </si>
   <si>
     <t>Thisted</t>
@@ -280,9 +204,6 @@
 7700 Thisted</t>
   </si>
   <si>
-    <t>https://docplayer.dk/47122203-I-s-kraftvarmevaerk-thisted.html</t>
-  </si>
-  <si>
     <t>Vejen</t>
   </si>
   <si>
@@ -290,89 +211,20 @@
 6600 Vejen</t>
   </si>
   <si>
-    <t>https://stadsarkiv.frederikshavn.dk/media/10122/12-01-16-referat-med-bilag-aaben.pdf</t>
-  </si>
-  <si>
     <t>in 1979 and plant replaced the plant that was built in 1967.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.haderslev-fjernvarme.dk/om-os/haderslev-fjernvarme/historie/ and </t>
-  </si>
-  <si>
-    <t>https://arkiv.dk/soeg?searchstring=hj%C3%B8rring+forbr%C3%A6ndingsanstalt&amp;valgtearkiverids=482</t>
-  </si>
-  <si>
-    <t>https://www.mercell.com/en/tender/90684754/tender-for-replacement-of-wte-boilers---fjernvarme-horsens-as-tender.aspx</t>
-  </si>
-  <si>
-    <t>Affaldscenter Aarhus Nord</t>
-  </si>
-  <si>
-    <t>Energnist</t>
-  </si>
-  <si>
-    <t>Frederikshavn Affaldskraftvarmeværk (previously by DONG)</t>
-  </si>
-  <si>
-    <t>https://mst.dk/media/mst/Attachments/Forbrndingbenchmarkingfor2011.pdf</t>
-  </si>
-  <si>
-    <t>https://www.dublix.com/library/news/2007/sep/vejen-chp-install-two-combustion-grates and https://mst.dk/media/mst/Attachments/Forbrndingbenchmarkingfor2011.pdf</t>
-  </si>
-  <si>
-    <t>Måbjergværket A/S (Previously DONG)</t>
   </si>
   <si>
     <t>Endelavevej 7,
 8700 Horsens</t>
   </si>
   <si>
-    <t>HKV Horsens A/S (Previously DONG)</t>
-  </si>
-  <si>
-    <t>I/S Norfors</t>
-  </si>
-  <si>
-    <t>I/S AffaldPlus Næstved forbrænding</t>
-  </si>
-  <si>
-    <t>Fjernvarme Fyn Affaldsenergi A/S (Previously DONG)</t>
-  </si>
-  <si>
-    <t>Bornholms Affaldsbehandling I/S</t>
-  </si>
-  <si>
-    <t>ARGO I/S</t>
-  </si>
-  <si>
-    <t>Forbrænding Skagen</t>
-  </si>
-  <si>
-    <t>I/S Kraftvarmeværk Thisted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONG </t>
-  </si>
-  <si>
     <t>Aars</t>
-  </si>
-  <si>
-    <t>Aars Kommune</t>
   </si>
   <si>
     <t>Dybvad Møllevej 1,
 9600 Aars</t>
   </si>
   <si>
-    <t xml:space="preserve">Closing report </t>
-  </si>
-  <si>
-    <t>https://www.endswasteandbioenergy.com/article/1332065/waste-to-heat-plant-close-2017 and https://stadsarkiv.frederikshavn.dk/media/10122/12-01-16-referat-med-bilag-aaben.pdf and https://www.skagensavis.dk/2019/04/25/magtarrogance-og-tilsidesaettelse-af-loven-lukker-endegyldigt-skagen-forbraending.html</t>
-  </si>
-  <si>
-    <t>Sindal kommune</t>
-  </si>
-  <si>
     <t>before 1984</t>
   </si>
   <si>
@@ -382,12 +234,6 @@
     <t xml:space="preserve">Struer </t>
   </si>
   <si>
-    <t xml:space="preserve">Videbæk Elektricitetsværk </t>
-  </si>
-  <si>
-    <t>https://www.videnergi.dk/om-os/historie</t>
-  </si>
-  <si>
     <t xml:space="preserve">In 1993 the incineration plant exploded and it was turned into a gas-fired CHP plant. </t>
   </si>
   <si>
@@ -412,9 +258,6 @@
     <t>Ringsted</t>
   </si>
   <si>
-    <t>Most Recent Owner</t>
-  </si>
-  <si>
     <t>Frederiksberg</t>
   </si>
   <si>
@@ -457,18 +300,6 @@
     <t>Vognporten 11, 2620 Albertslund.</t>
   </si>
   <si>
-    <t>https://skorstenen.dk/historie and http://www.vinkkbh.dk/kbh-steder/forbraendingen-i-albertslund/</t>
-  </si>
-  <si>
-    <t>https://www.brondbyfjernvarme.dk/profil/om-os/historie/</t>
-  </si>
-  <si>
-    <t>Book history of Denmark</t>
-  </si>
-  <si>
-    <t>Kedelhallen, Nyelandsvej 75A, 2000 Frederiksberg</t>
-  </si>
-  <si>
     <t>The plant which was operating in 1984 was the Skagen one</t>
   </si>
   <si>
@@ -481,31 +312,10 @@
     <t>Kærup (Viborg)</t>
   </si>
   <si>
-    <t>http://energnist.dk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the document on the history of Danish incineration, it should have opened before 1984; but my source says this si not the case. </t>
-  </si>
-  <si>
-    <t>https://arkiv.dk/vis/67203</t>
-  </si>
-  <si>
     <t>Korsør (Slagelse)</t>
   </si>
   <si>
-    <t xml:space="preserve">According to the history book it was in operation in 1984. On the server I am considering Slagelse as a Muncipacility which has always had an incinerator, since the Korsor incinerator opened in 1970. </t>
-  </si>
-  <si>
     <t>Magleby (Stevns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The plant was completed in 1994, but according to the history book it was in operation in 1984.  </t>
-  </si>
-  <si>
-    <t>https://www.fihpartners.com/kommunekemi/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">according to the book on the history of Danish incineration, the plant should have closed before 2007. A possible explanation is that this plant is owned by Kommenekemi, which treats hazardous waste from all over the world, not just muncipal waste; the book, instead, focuses on Municipal waste. </t>
   </si>
   <si>
     <t>Lindholmvej 3, 5800 Nyborg</t>
@@ -525,9 +335,6 @@
 6920 Videbæk</t>
   </si>
   <si>
-    <t xml:space="preserve">According to the document on the history of Danish incineration, it should have opened before 1984; but, in another part, the docuent says that the plant opened in 1992. </t>
-  </si>
-  <si>
     <t>Graested (Gribskov)</t>
   </si>
   <si>
@@ -556,17 +363,168 @@
     <t xml:space="preserve">the plants was closed because of dioxin emissions. </t>
   </si>
   <si>
-    <t>e-mail from the archive</t>
-  </si>
-  <si>
     <t>Porsenvej 50, Måstrup, 9870 Sindal</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Sogn/Parise</t>
+  </si>
+  <si>
+    <t>Sogn/Number</t>
+  </si>
+  <si>
+    <t>Nørre Tranders Sogn</t>
+  </si>
+  <si>
+    <t>Ars Sogn</t>
+  </si>
+  <si>
+    <t>Opstandelseskirkens Sogn</t>
+  </si>
+  <si>
+    <t>Vor Frelsers Sogn</t>
+  </si>
+  <si>
+    <t>Lisbjerg Sogn</t>
+  </si>
+  <si>
+    <t>Jerne Sogn</t>
+  </si>
+  <si>
+    <t>Godthaabs Sogn</t>
+  </si>
+  <si>
+    <t>Elling Sogn</t>
+  </si>
+  <si>
+    <t>Glostrup Sogn</t>
+  </si>
+  <si>
+    <t>Greenaa Sogn</t>
+  </si>
+  <si>
+    <t>Hoptrup Sogn</t>
+  </si>
+  <si>
+    <t>Hammel Sogn</t>
+  </si>
+  <si>
+    <t>Rind Sogn</t>
+  </si>
+  <si>
+    <t>Bistrup Sogn</t>
+  </si>
+  <si>
+    <t>Hobro Sogn</t>
+  </si>
+  <si>
+    <t>Måbjerg Sogn</t>
+  </si>
+  <si>
+    <t>Sønderbro Sogn</t>
+  </si>
+  <si>
+    <t>Kokkeldal Sogn</t>
+  </si>
+  <si>
+    <t>Harte Sogn</t>
+  </si>
+  <si>
+    <t>Måstrup forbrændingsanlæg</t>
+  </si>
+  <si>
+    <t>Mosbjerg forbrændingsanlæg</t>
+  </si>
+  <si>
+    <t>Mosbjerg Sogn</t>
+  </si>
+  <si>
+    <t>This was found by Prof. Andersen</t>
+  </si>
+  <si>
+    <t>Sankt Mortens Sogn</t>
+  </si>
+  <si>
+    <t>Nykøbing F sogn</t>
+  </si>
+  <si>
+    <t>Fredens Sogn</t>
+  </si>
+  <si>
+    <t>Stæhr Johansens Vej 38,2000 Frederiksberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location was found by Prof. Andersen. I found this location "Kedelhallen, Nyelandsvej 75A, 2000 Frederiksberg". Anyhow, it is not relevant, since the incinerator closed in 1934. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">according to the book on the history of Danish incineration, the plant should have closed before 2007. But according to https://www.fihpartners.com/kommunekemi/ it is still opened. A possible explanation is that this plant is owned by Kommenekemi, which treats hazardous waste from all over the world, not just muncipal waste; the book, instead, focuses on Municipal waste. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The plant was completed in 1994 according to https://slideplayer.com/slide/8168022/, but according to the history book it was in operation in 1984.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the document on the history of Danish incineration, it should have opened before 1984; but http://energnist.dk/  says this is not the case. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the document on the history of Danish incineration, it should have opened before 1984; but https://www.mercell.com/en/tender/90684754/tender-for-replacement-of-wte-boilers---fjernvarme-horsens-as-tender.aspx says that the plant opened in 1992. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the history book it was in operation in 1984, but https://www.tv2east.dk/slagelse/kommuner-vil-lukke-forbraendingsanlaeg-rammer-anlaeg-i-slagelse says it opened in 1990. On the server I am considering Slagelse as a Muncipality which has always had an incinerator, since the Korsor incinerator opened in 1970. </t>
+  </si>
+  <si>
+    <t>Brøndbyvester Sogn</t>
+  </si>
+  <si>
+    <t>Magleby Stevns Sogn</t>
+  </si>
+  <si>
+    <t>Nyborg Sogn</t>
+  </si>
+  <si>
+    <t>Knudsker Sogn</t>
+  </si>
+  <si>
+    <t>Skagen Sogn</t>
+  </si>
+  <si>
+    <t>Skanderborg Sogn</t>
+  </si>
+  <si>
+    <t>Nørrevang Sogn</t>
+  </si>
+  <si>
+    <t>Ulkebøl Sogn</t>
+  </si>
+  <si>
+    <t>Bodøvej 15,
+5700 Svendborg</t>
+  </si>
+  <si>
+    <t>Sørup Sogn</t>
+  </si>
+  <si>
+    <t>Thisted Sogn</t>
+  </si>
+  <si>
+    <t>Vejen Sogn</t>
+  </si>
+  <si>
+    <t>Videbæk Sogn</t>
+  </si>
+  <si>
+    <t>Roskilde Domsogn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the sogn number is not sure. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,14 +536,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,13 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,11 +597,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -669,37 +618,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,112 +654,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106679</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3787140" cy="1922146"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11548110" y="297179"/>
-          <a:ext cx="3787140" cy="1922146"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Legend: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SURE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SURE BUT INCONSISTENCY WITH THE BOOK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>STILL WORKING</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1084,11 +919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="A39:G39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,13 +932,12 @@
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,77 +951,65 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5">
         <v>1978</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8371</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5">
         <v>1986</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8269</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="C4" s="6">
         <v>1967</v>
@@ -1195,47 +1017,41 @@
       <c r="D4" s="6">
         <v>1992</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9134</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <v>1934</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8127</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="C6" s="6">
         <v>1971</v>
@@ -1243,28 +1059,30 @@
       <c r="D6" s="6">
         <v>1992</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7144</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1274,19 +1092,23 @@
       <c r="C8" s="5">
         <v>2017</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7082</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>1970</v>
@@ -1295,34 +1117,40 @@
         <v>2017</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7082</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
         <v>2003</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8908</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C11" s="5">
         <v>1903</v>
@@ -1330,86 +1158,96 @@
       <c r="D11" s="5">
         <v>1934</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7108</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5">
         <v>1993</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F12" s="5">
+        <v>8430</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5">
         <v>1970</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7147</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5">
         <v>1981</v>
@@ -1418,17 +1256,19 @@
         <v>2018</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8231</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
         <v>1967</v>
@@ -1437,54 +1277,57 @@
         <v>2013</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F17" s="5">
+        <v>8965</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5">
         <v>1957</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="F19" s="5">
+        <v>8022</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>1967</v>
@@ -1493,40 +1336,42 @@
         <v>2010</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F20" s="5">
+        <v>8803</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5">
         <v>1965</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F21" s="5">
+        <v>7448</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5">
         <v>1984</v>
@@ -1535,127 +1380,139 @@
         <v>2017</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8198</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8814</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="10">
+    <row r="24" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="7">
         <v>1992</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="7">
+        <v>9077</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5">
         <v>1965</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="F25" s="5">
+        <v>9145</v>
+      </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="10">
+    <row r="27" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7">
         <v>1994</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="7">
+        <v>7933</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3">
         <v>1970</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="C29" s="6">
         <v>1972</v>
@@ -1663,468 +1520,504 @@
       <c r="D29" s="6">
         <v>1972</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="10">
+      <c r="E29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="6">
+        <v>7495</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12">
+        <v>1970</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1985</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="7">
         <v>1994</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="D32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="7">
+        <v>7511</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="8">
         <v>1971</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="D33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="8">
+        <v>7724</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5">
         <v>1983</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1997</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="5">
+        <v>7578</v>
+      </c>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C35" s="5">
-        <v>1991</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>1997</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E35" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="F35" s="5">
+        <v>7782</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1991</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="5">
+        <v>7553</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="D38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="2">
+        <v>7156</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="5">
         <v>1969</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D41" s="6">
         <v>1985</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="E41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="6">
+        <v>8428</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="5">
         <v>1967</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D42" s="5">
         <v>2019</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="5">
+        <v>8480</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1983</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="5">
+        <v>9166</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1983</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1990</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1970</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="5"/>
+    <row r="45" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1990</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="7">
+        <v>9144</v>
+      </c>
       <c r="G45" s="7" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="5">
         <v>1970</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="D47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="5">
+        <v>8992</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="A49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1970</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="5">
+        <v>9238</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="5">
         <v>1977</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="D51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="5">
+        <v>8721</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="5">
         <v>1991</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D53" s="5">
         <v>2010</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="6">
+      <c r="E53" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="5">
+        <v>8931</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="6">
         <v>1981</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D54" s="6">
         <v>1993</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>112</v>
+      <c r="E54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="6">
+        <v>8769</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="H1:I4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G40" r:id="rId5" display="https://www.endswasteandbioenergy.com/article/1332065/waste-to-heat-plant-close-2017" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G41" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G43" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G49" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G51" r:id="rId11" display="https://www.dublix.com/library/news/2007/sep/vejen-chp-install-two-combustion-grates" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G52" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G4" r:id="rId18" display="https://skorstenen.dk/historie" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <drawing r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>